--- a/Diccionario.xlsx
+++ b/Diccionario.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srm\Documents\Sistema De Ventas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Osornio\Documents\ProyectoVentas\SistemaVenntas0.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317AD111-D3C4-443E-B5C9-C54C7D85FBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B53AF-C0D7-4AB9-8866-F1A30920C7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="746" activeTab="8" xr2:uid="{E0EAD927-545F-4F18-A500-5B636A260EBD}"/>
+    <workbookView xWindow="990" yWindow="120" windowWidth="18465" windowHeight="7875" tabRatio="746" firstSheet="1" activeTab="3" xr2:uid="{E0EAD927-545F-4F18-A500-5B636A260EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arituculo" sheetId="2" r:id="rId2"/>
-    <sheet name="Cliente" sheetId="3" r:id="rId3"/>
-    <sheet name="provedor" sheetId="4" r:id="rId4"/>
-    <sheet name="Usuario" sheetId="5" r:id="rId5"/>
-    <sheet name="venta" sheetId="6" r:id="rId6"/>
-    <sheet name="ticket" sheetId="7" r:id="rId7"/>
-    <sheet name="categoria" sheetId="8" r:id="rId8"/>
-    <sheet name="roles de usuario" sheetId="9" r:id="rId9"/>
+    <sheet name="Cliente" sheetId="3" r:id="rId2"/>
+    <sheet name="provedor" sheetId="4" r:id="rId3"/>
+    <sheet name="Arituculo" sheetId="2" r:id="rId4"/>
+    <sheet name="Imagenes" sheetId="10" r:id="rId5"/>
+    <sheet name="VariantesArt" sheetId="11" r:id="rId6"/>
+    <sheet name="Usuario" sheetId="5" r:id="rId7"/>
+    <sheet name="venta" sheetId="6" r:id="rId8"/>
+    <sheet name="ticket" sheetId="7" r:id="rId9"/>
+    <sheet name="categoria" sheetId="8" r:id="rId10"/>
+    <sheet name="roles de usuario" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Diccionario De Sistema De Ventas</t>
   </si>
@@ -60,6 +62,96 @@
   </si>
   <si>
     <t>Columna6</t>
+  </si>
+  <si>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>nombreCliente</t>
+  </si>
+  <si>
+    <t>ape1Cliente</t>
+  </si>
+  <si>
+    <t>ape2Cliente</t>
+  </si>
+  <si>
+    <t>apodoCliente</t>
+  </si>
+  <si>
+    <t>idArticulo</t>
+  </si>
+  <si>
+    <t>nombreArticulo</t>
+  </si>
+  <si>
+    <t>descripcionArticulo</t>
+  </si>
+  <si>
+    <t>marcaArticulo</t>
+  </si>
+  <si>
+    <t>modeloArticulo</t>
+  </si>
+  <si>
+    <t>idProvedor</t>
+  </si>
+  <si>
+    <t>nombreProvedor</t>
+  </si>
+  <si>
+    <t>descripcionProvedor</t>
+  </si>
+  <si>
+    <t>direccionProvedor</t>
+  </si>
+  <si>
+    <t>rfcProvedor</t>
+  </si>
+  <si>
+    <t>rfcCliente</t>
+  </si>
+  <si>
+    <t>idImagen</t>
+  </si>
+  <si>
+    <t>nombreImg</t>
+  </si>
+  <si>
+    <t>descripcionImg</t>
+  </si>
+  <si>
+    <t>rutaImg</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>nombreUser</t>
+  </si>
+  <si>
+    <t>ape1User</t>
+  </si>
+  <si>
+    <t>ape2User</t>
+  </si>
+  <si>
+    <t>rfcUser</t>
+  </si>
+  <si>
+    <t>usuarioUser</t>
+  </si>
+  <si>
+    <t>passUser</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>idVariante</t>
+  </si>
+  <si>
+    <t>nombreVariante</t>
   </si>
 </sst>
 </file>
@@ -105,10 +197,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,15 +542,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -491,16 +583,159 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20572A3-4F6C-4B5E-84ED-0EEEC97311BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A52893E-15E2-49B8-81CE-16CAE4448CE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788715-EDAC-442A-952E-95AAD977A8F5}">
+  <dimension ref="A4:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2694D52A-1DAA-4B12-B81F-C7D32F867EB9}">
+  <dimension ref="A5:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ED4C16-EC92-4A49-942D-C494F1728650}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,43 +743,128 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D788715-EDAC-442A-952E-95AAD977A8F5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2694D52A-1DAA-4B12-B81F-C7D32F867EB9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C432B015-6C4A-4E52-80ED-0A2452431BFC}">
+  <dimension ref="A5:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14680E0C-A3AE-4B6B-B37A-481FDF713EFE}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B27D98-FF05-4C49-8353-AAF183A7746E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A5:A13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C072985F-D211-4AFE-8432-0AD5973BBEF2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -556,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08662D39-611B-4631-A1C4-23066DDC6D18}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -568,30 +888,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20572A3-4F6C-4B5E-84ED-0EEEC97311BB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A52893E-15E2-49B8-81CE-16CAE4448CE1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>